--- a/web/WBTBSsystem/system/downloads/testOut_captain.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut_captain.xlsx
@@ -486,11 +486,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SG001</t>
+          <t>MY00202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,20 +499,18 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45366.68958333333</v>
+        <v>45369.99888888889</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" s="2" t="n">
-        <v>45364.81319444445</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">NB002
@@ -522,11 +520,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MY001</t>
+          <t>CB0003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,22 +533,21 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Scheduled</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>45366.68958333333</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" s="2" t="n">
+        <v>45369.99945601852</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">NB001
-NB002
+          <t xml:space="preserve">NB002
 </t>
         </is>
       </c>

--- a/web/WBTBSsystem/system/downloads/testOut_captain.xlsx
+++ b/web/WBTBSsystem/system/downloads/testOut_captain.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,11 +482,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MY00202</t>
+          <t>CN0006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -499,53 +495,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Scheduled</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>45369.99888888889</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NB002
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>22</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CB0003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>INBOUND</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" s="2" t="n">
-        <v>45369.99945601852</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">NB002
 </t>
